--- a/lecturePlan.xlsx
+++ b/lecturePlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s15052\Documents\Teaching\BAN430\BAN430_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734F982B-7C97-43BC-B365-641C61121079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07C06A1-061E-4B27-BE6E-43A6DCACBDE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Week number</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Introduction lecture BAN430</t>
   </si>
   <si>
-    <t>Graphics</t>
-  </si>
-  <si>
     <t>Home exam</t>
   </si>
   <si>
@@ -134,10 +131,16 @@
     <t>Hølleland i syden</t>
   </si>
   <si>
-    <t>Semesterstart 9.januar</t>
-  </si>
-  <si>
     <t>Siste forelesningsdag 21.april</t>
+  </si>
+  <si>
+    <t>XXXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>Første forelesning mandag 16.1</t>
   </si>
 </sst>
 </file>
@@ -187,9 +190,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +511,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,12 +540,12 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -556,12 +560,12 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -570,12 +574,12 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -589,66 +593,66 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -656,24 +660,24 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -681,10 +685,13 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -692,27 +699,33 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
+      <c r="E13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/lecturePlan.xlsx
+++ b/lecturePlan.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s15052\Documents\Teaching\BAN430\BAN430_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07C06A1-061E-4B27-BE6E-43A6DCACBDE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8487882-D7B4-493F-A091-3A3C4E5C02D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
   <si>
     <t>Week number</t>
   </si>
@@ -41,12 +44,6 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>First lecture</t>
-  </si>
-  <si>
-    <t>Second lecture</t>
-  </si>
-  <si>
     <t>Introduction and R</t>
   </si>
   <si>
@@ -141,13 +138,172 @@
   </si>
   <si>
     <t>Første forelesning mandag 16.1</t>
+  </si>
+  <si>
+    <t>Monday 14:15-16:00</t>
+  </si>
+  <si>
+    <t>Thursday 12:15-14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No lecture </t>
+  </si>
+  <si>
+    <t>Geilo</t>
+  </si>
+  <si>
+    <t>Mondays</t>
+  </si>
+  <si>
+    <t>Thursdays</t>
+  </si>
+  <si>
+    <t>Introduction lecture / Time series</t>
+  </si>
+  <si>
+    <t>Basic R / R recap</t>
+  </si>
+  <si>
+    <t>Exponential smoothing</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
+    <t>Easter holiday</t>
+  </si>
+  <si>
+    <t>Vet ikke hva som skjer 23.03</t>
+  </si>
+  <si>
+    <t>Judgemental forecasts</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Summary lecture</t>
+  </si>
+  <si>
+    <t>No lecture / selfstudy</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>8 hour home exam</t>
+  </si>
+  <si>
+    <t>Study period prior to exam</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Time series decomposition (summary)</t>
+  </si>
+  <si>
+    <t>No lecture: Selfstudy time series features (website)</t>
+  </si>
+  <si>
+    <t>Dynamic regresion models</t>
+  </si>
+  <si>
+    <t>16.01.2023</t>
+  </si>
+  <si>
+    <t>19.01.2023</t>
+  </si>
+  <si>
+    <t>23.01.2023</t>
+  </si>
+  <si>
+    <t>26.01.2023</t>
+  </si>
+  <si>
+    <t>30.01.2023</t>
+  </si>
+  <si>
+    <t>02.02.2023</t>
+  </si>
+  <si>
+    <t>06.02.2023</t>
+  </si>
+  <si>
+    <t>09.02.2023</t>
+  </si>
+  <si>
+    <t>13.02.2023</t>
+  </si>
+  <si>
+    <t>16.02.2023</t>
+  </si>
+  <si>
+    <t>20.02.2023</t>
+  </si>
+  <si>
+    <t>23.02.2023</t>
+  </si>
+  <si>
+    <t>27.02.2023</t>
+  </si>
+  <si>
+    <t>02.03.2023</t>
+  </si>
+  <si>
+    <t>06.03.2023</t>
+  </si>
+  <si>
+    <t>09.03.2023</t>
+  </si>
+  <si>
+    <t>13.03.2023</t>
+  </si>
+  <si>
+    <t>16.03.2023</t>
+  </si>
+  <si>
+    <t>20.03.2023</t>
+  </si>
+  <si>
+    <t>03.04.2023</t>
+  </si>
+  <si>
+    <t>06.04.2023</t>
+  </si>
+  <si>
+    <t>27.03.2023</t>
+  </si>
+  <si>
+    <t>30.03.2023</t>
+  </si>
+  <si>
+    <t>13.04.2023</t>
+  </si>
+  <si>
+    <t>10.04.2023</t>
+  </si>
+  <si>
+    <t>08.05.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,16 +325,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -186,14 +414,422 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1602BAC1-380E-4833-8006-FA92A91C8286}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,16 +1167,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -548,19 +1184,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -582,13 +1218,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,13 +1232,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -610,16 +1246,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -627,13 +1263,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,13 +1277,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,10 +1291,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,13 +1302,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -680,13 +1316,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -694,16 +1330,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,10 +1347,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,10 +1358,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -733,4 +1369,1295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6C382B-A390-441B-AFA9-C1DFECC0D308}">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44942</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44949</v>
+      </c>
+      <c r="H3" s="3">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44956</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44963</v>
+      </c>
+      <c r="H5" s="3">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44970</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4">
+        <v>44977</v>
+      </c>
+      <c r="H7" s="4">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44991</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44998</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45005</v>
+      </c>
+      <c r="H11" s="4">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45012</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45019</v>
+      </c>
+      <c r="H13" s="4">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45026</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="24">
+        <v>44942</v>
+      </c>
+      <c r="C18" s="28">
+        <v>44945</v>
+      </c>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="24">
+        <v>44949</v>
+      </c>
+      <c r="C20" s="28">
+        <v>44952</v>
+      </c>
+      <c r="D20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="24">
+        <v>44956</v>
+      </c>
+      <c r="C22" s="28">
+        <v>44959</v>
+      </c>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="26">
+        <v>44963</v>
+      </c>
+      <c r="C24" s="30">
+        <v>44966</v>
+      </c>
+      <c r="D24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="41"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="24">
+        <v>44970</v>
+      </c>
+      <c r="C26" s="28">
+        <v>44973</v>
+      </c>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="B28" s="20">
+        <v>44977</v>
+      </c>
+      <c r="C28" s="15">
+        <v>44980</v>
+      </c>
+      <c r="D28" s="40"/>
+    </row>
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="10">
+        <v>44984</v>
+      </c>
+      <c r="C30" s="13">
+        <v>44987</v>
+      </c>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="12">
+        <v>44991</v>
+      </c>
+      <c r="C32" s="20">
+        <v>44994</v>
+      </c>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="10">
+        <v>44998</v>
+      </c>
+      <c r="C34" s="13">
+        <v>45001</v>
+      </c>
+      <c r="D34" s="40"/>
+    </row>
+    <row r="35" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="16">
+        <v>45005</v>
+      </c>
+      <c r="C36" s="20">
+        <v>45008</v>
+      </c>
+      <c r="D36" s="40"/>
+    </row>
+    <row r="37" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="41"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="19">
+        <v>45012</v>
+      </c>
+      <c r="C38" s="10">
+        <v>45015</v>
+      </c>
+      <c r="D38" s="40"/>
+    </row>
+    <row r="39" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="41"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="34">
+        <v>45019</v>
+      </c>
+      <c r="C40" s="20">
+        <v>45022</v>
+      </c>
+      <c r="D40" s="40"/>
+    </row>
+    <row r="41" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+      <c r="B42" s="15">
+        <v>45026</v>
+      </c>
+      <c r="C42" s="12">
+        <v>45029</v>
+      </c>
+      <c r="D42" s="40"/>
+    </row>
+    <row r="43" spans="1:4" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="41"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="40"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="40"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="40"/>
+    </row>
+    <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="47">
+        <v>45054</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="40"/>
+    </row>
+    <row r="48" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B44:C46"/>
+    <mergeCell ref="A40:A46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02AE7A-CD84-44B4-BCAE-299F3ABE620B}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="89"/>
+      <c r="B1" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="93"/>
+      <c r="B3" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="93"/>
+      <c r="B4" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="93"/>
+      <c r="B5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="93"/>
+      <c r="B6" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="94"/>
+      <c r="B7" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="93"/>
+      <c r="B9" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="93"/>
+      <c r="B10" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="93"/>
+      <c r="B11" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="93"/>
+      <c r="B12" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="93"/>
+      <c r="B14" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="94"/>
+      <c r="B15" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="93"/>
+      <c r="B17" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="93"/>
+      <c r="B18" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="93"/>
+      <c r="B19" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="93"/>
+      <c r="B20" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="93"/>
+      <c r="B21" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="93"/>
+      <c r="B22" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="94"/>
+      <c r="B23" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="93"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="93"/>
+      <c r="B26" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="93"/>
+      <c r="B27" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="93"/>
+      <c r="C28" s="98"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93"/>
+      <c r="B29" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="99"/>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="86"/>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="96"/>
+      <c r="B31" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A780E3C1-B692-48F8-988B-66A9EFA8823C}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44942</v>
+      </c>
+      <c r="C2" s="28">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="24">
+        <v>44949</v>
+      </c>
+      <c r="C4" s="28">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="24">
+        <v>44956</v>
+      </c>
+      <c r="C6" s="28">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="26">
+        <v>44963</v>
+      </c>
+      <c r="C8" s="30">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+      <c r="B9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="24">
+        <v>44970</v>
+      </c>
+      <c r="C10" s="28">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="20">
+        <v>44977</v>
+      </c>
+      <c r="C12" s="15">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="10">
+        <v>44984</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="12">
+        <v>44991</v>
+      </c>
+      <c r="C16" s="20">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="10">
+        <v>44998</v>
+      </c>
+      <c r="C18" s="13">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="16">
+        <v>45005</v>
+      </c>
+      <c r="C20" s="20">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="19">
+        <v>45012</v>
+      </c>
+      <c r="C22" s="10">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="34">
+        <v>45019</v>
+      </c>
+      <c r="C24" s="20">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="15">
+        <v>45026</v>
+      </c>
+      <c r="C26" s="12">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="B28" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="53"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="47">
+        <v>45054</v>
+      </c>
+      <c r="C31" s="48"/>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lecturePlan.xlsx
+++ b/lecturePlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s15052\Documents\Teaching\BAN430\BAN430_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8487882-D7B4-493F-A091-3A3C4E5C02D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E98F40-71F6-44B6-9B45-9BC511EB033F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -665,51 +665,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -790,22 +745,61 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,14 +815,17 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1714,7 +1711,7 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="81" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="24">
@@ -1726,7 +1723,7 @@
       <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="27" t="s">
         <v>40</v>
       </c>
@@ -1736,7 +1733,7 @@
       <c r="D19" s="41"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="24">
         <v>44949</v>
       </c>
@@ -1746,7 +1743,7 @@
       <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="27" t="s">
         <v>3</v>
       </c>
@@ -1756,7 +1753,7 @@
       <c r="D21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="24">
         <v>44956</v>
       </c>
@@ -1766,7 +1763,7 @@
       <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="27" t="s">
         <v>7</v>
       </c>
@@ -1776,7 +1773,7 @@
       <c r="D23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="81" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="26">
@@ -1788,7 +1785,7 @@
       <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="25" t="s">
         <v>8</v>
       </c>
@@ -1798,7 +1795,7 @@
       <c r="D25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="24">
         <v>44970</v>
       </c>
@@ -1808,7 +1805,7 @@
       <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="27" t="s">
         <v>42</v>
       </c>
@@ -1818,7 +1815,7 @@
       <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="20">
         <v>44977</v>
       </c>
@@ -1828,7 +1825,7 @@
       <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="37" t="s">
         <v>59</v>
       </c>
@@ -1838,7 +1835,7 @@
       <c r="D29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="10">
         <v>44984</v>
       </c>
@@ -1848,7 +1845,7 @@
       <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="11" t="s">
         <v>43</v>
       </c>
@@ -1858,7 +1855,7 @@
       <c r="D31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="81" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="12">
@@ -1870,7 +1867,7 @@
       <c r="D32" s="40"/>
     </row>
     <row r="33" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="11" t="s">
         <v>43</v>
       </c>
@@ -1880,7 +1877,7 @@
       <c r="D33" s="41"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="10">
         <v>44998</v>
       </c>
@@ -1890,7 +1887,7 @@
       <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="11" t="s">
         <v>43</v>
       </c>
@@ -1900,7 +1897,7 @@
       <c r="D35" s="41"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="16">
         <v>45005</v>
       </c>
@@ -1910,7 +1907,7 @@
       <c r="D36" s="40"/>
     </row>
     <row r="37" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="17" t="s">
         <v>46</v>
       </c>
@@ -1920,7 +1917,7 @@
       <c r="D37" s="41"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="19">
         <v>45012</v>
       </c>
@@ -1930,7 +1927,7 @@
       <c r="D38" s="40"/>
     </row>
     <row r="39" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="18" t="s">
         <v>11</v>
       </c>
@@ -1940,7 +1937,7 @@
       <c r="D39" s="41"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="81" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="34">
@@ -1952,7 +1949,7 @@
       <c r="D40" s="40"/>
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="82"/>
       <c r="B41" s="35"/>
       <c r="C41" s="23" t="s">
         <v>44</v>
@@ -1960,7 +1957,7 @@
       <c r="D41" s="41"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+      <c r="A42" s="82"/>
       <c r="B42" s="15">
         <v>45026</v>
       </c>
@@ -1970,7 +1967,7 @@
       <c r="D42" s="40"/>
     </row>
     <row r="43" spans="1:4" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="36" t="s">
         <v>44</v>
       </c>
@@ -1980,41 +1977,41 @@
       <c r="D43" s="41"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="52" t="s">
+      <c r="A44" s="82"/>
+      <c r="B44" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="53"/>
+      <c r="C44" s="85"/>
       <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="87"/>
       <c r="D45" s="40"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="57"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="40"/>
     </row>
     <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="79">
         <v>45054</v>
       </c>
-      <c r="C47" s="48"/>
+      <c r="C47" s="80"/>
       <c r="D47" s="40"/>
     </row>
     <row r="48" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="76"/>
+      <c r="B48" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="46"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02AE7A-CD84-44B4-BCAE-299F3ABE620B}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,290 +2058,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90" t="s">
+      <c r="A1" s="70"/>
+      <c r="B1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="72" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="60" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="47" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="44" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="91"/>
+      <c r="B9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="58" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="44" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="91"/>
+      <c r="B11" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="46" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="54" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
-      <c r="B14" s="70" t="s">
+      <c r="A14" s="91"/>
+      <c r="B14" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="56" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="92"/>
+      <c r="B15" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="58" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="52" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="60" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="70" t="s">
+      <c r="A18" s="91"/>
+      <c r="B18" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="58" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
-      <c r="B20" s="76" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="77" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="63" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="79" t="s">
+      <c r="A22" s="91"/>
+      <c r="B22" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="55" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="80" t="s">
+      <c r="A23" s="92"/>
+      <c r="B23" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="52" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="75" t="s">
+      <c r="A25" s="91"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="60" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
-      <c r="B26" s="68" t="s">
+      <c r="A26" s="91"/>
+      <c r="B26" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="59" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
-      <c r="B27" s="83" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="69" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
-      <c r="C28" s="98"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
-      <c r="B29" s="97" t="s">
+      <c r="A28" s="91"/>
+      <c r="B28" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="99"/>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="95" t="s">
+      <c r="C28" s="74"/>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B29" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="86"/>
-    </row>
-    <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="87" t="s">
+      <c r="C29" s="96"/>
+    </row>
+    <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="94"/>
+      <c r="B30" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="88"/>
+      <c r="C30" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A15"/>
     <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2375,7 +2368,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="81" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="24">
@@ -2386,7 +2379,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="27" t="s">
         <v>40</v>
       </c>
@@ -2395,7 +2388,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="24">
         <v>44949</v>
       </c>
@@ -2403,8 +2396,8 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="82"/>
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
@@ -2413,7 +2406,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="24">
         <v>44956</v>
       </c>
@@ -2422,7 +2415,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="27" t="s">
         <v>7</v>
       </c>
@@ -2431,7 +2424,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="81" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="26">
@@ -2442,7 +2435,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
@@ -2451,7 +2444,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="24">
         <v>44970</v>
       </c>
@@ -2460,7 +2453,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="27" t="s">
         <v>42</v>
       </c>
@@ -2469,7 +2462,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="20">
         <v>44977</v>
       </c>
@@ -2477,8 +2470,8 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="82"/>
       <c r="B13" s="37" t="s">
         <v>59</v>
       </c>
@@ -2487,7 +2480,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="10">
         <v>44984</v>
       </c>
@@ -2496,7 +2489,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="11" t="s">
         <v>43</v>
       </c>
@@ -2505,7 +2498,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="81" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="12">
@@ -2516,7 +2509,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="11" t="s">
         <v>43</v>
       </c>
@@ -2525,7 +2518,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="10">
         <v>44998</v>
       </c>
@@ -2534,7 +2527,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
@@ -2543,7 +2536,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="16">
         <v>45005</v>
       </c>
@@ -2552,7 +2545,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="17" t="s">
         <v>46</v>
       </c>
@@ -2561,7 +2554,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="19">
         <v>45012</v>
       </c>
@@ -2570,7 +2563,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="18" t="s">
         <v>11</v>
       </c>
@@ -2579,7 +2572,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="81" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="34">
@@ -2590,14 +2583,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="35"/>
       <c r="C25" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="15">
         <v>45026</v>
       </c>
@@ -2606,7 +2599,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="36" t="s">
         <v>44</v>
       </c>
@@ -2615,48 +2608,48 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="82"/>
+      <c r="B28" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="85"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="79">
         <v>45054</v>
       </c>
-      <c r="C31" s="48"/>
+      <c r="C31" s="80"/>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="76"/>
+      <c r="B32" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A15"/>
     <mergeCell ref="A16:A23"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="B28:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lecturePlan.xlsx
+++ b/lecturePlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s15052\Documents\Teaching\BAN430\BAN430_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E98F40-71F6-44B6-9B45-9BC511EB033F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0534F492-57BF-44D5-AB23-6A4D666D643F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
   <si>
     <t>Week number</t>
   </si>
@@ -297,6 +297,24 @@
   </si>
   <si>
     <t>08.05.2023</t>
+  </si>
+  <si>
+    <t>Introduction lecture</t>
+  </si>
+  <si>
+    <t>R recap</t>
+  </si>
+  <si>
+    <t>No lecture: Selfstudy judgmental forecasts (website)</t>
+  </si>
+  <si>
+    <t>23.03.2023</t>
+  </si>
+  <si>
+    <t>Dynamic regression models</t>
+  </si>
+  <si>
+    <t>Easter holiday?</t>
   </si>
 </sst>
 </file>
@@ -800,6 +818,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,18 +844,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2047,7 +2065,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,7 +2085,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="94" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -2078,16 +2096,16 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="45" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="43" t="s">
         <v>63</v>
       </c>
@@ -2096,7 +2114,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
@@ -2105,7 +2123,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="43" t="s">
         <v>65</v>
       </c>
@@ -2114,7 +2132,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="45" t="s">
         <v>7</v>
       </c>
@@ -2123,7 +2141,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="94" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -2134,7 +2152,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="50" t="s">
         <v>8</v>
       </c>
@@ -2143,7 +2161,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="43" t="s">
         <v>69</v>
       </c>
@@ -2152,7 +2170,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="45" t="s">
         <v>42</v>
       </c>
@@ -2161,7 +2179,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="52" t="s">
         <v>71</v>
       </c>
@@ -2169,17 +2187,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="95"/>
       <c r="B13" s="54" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="55" t="s">
         <v>73</v>
       </c>
@@ -2188,7 +2206,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="57" t="s">
         <v>43</v>
       </c>
@@ -2197,7 +2215,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="94" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -2208,7 +2226,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="57" t="s">
         <v>43</v>
       </c>
@@ -2217,7 +2235,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="55" t="s">
         <v>77</v>
       </c>
@@ -2226,7 +2244,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="57" t="s">
         <v>43</v>
       </c>
@@ -2235,25 +2253,25 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="61" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="62" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C21" s="63" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="64" t="s">
         <v>82</v>
       </c>
@@ -2262,7 +2280,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="65" t="s">
         <v>11</v>
       </c>
@@ -2271,7 +2289,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="94" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -2282,14 +2300,16 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="67" t="s">
+        <v>92</v>
+      </c>
       <c r="C25" s="60" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="53" t="s">
         <v>85</v>
       </c>
@@ -2298,7 +2318,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="68" t="s">
         <v>44</v>
       </c>
@@ -2307,27 +2327,27 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="73" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="74"/>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="96"/>
+      <c r="C29" s="91"/>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="97" t="s">
+      <c r="A30" s="98"/>
+      <c r="B30" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="98"/>
+      <c r="C30" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/lecturePlan.xlsx
+++ b/lecturePlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s15052\Documents\Teaching\BAN430\BAN430_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0534F492-57BF-44D5-AB23-6A4D666D643F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD16530C-6427-44E2-858F-B7D7CCA23CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="94">
   <si>
     <t>Week number</t>
   </si>
@@ -311,10 +311,13 @@
     <t>23.03.2023</t>
   </si>
   <si>
-    <t>Dynamic regression models</t>
-  </si>
-  <si>
-    <t>Easter holiday?</t>
+    <t>ARIMA + Dynamic regression models</t>
+  </si>
+  <si>
+    <t>Workshop 2</t>
+  </si>
+  <si>
+    <t>Solutions to Workshop 2</t>
   </si>
 </sst>
 </file>
@@ -2064,15 +2067,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02AE7A-CD84-44B4-BCAE-299F3ABE620B}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,10 +2249,10 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="95"/>
       <c r="B19" s="57" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2264,7 +2267,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="95"/>
       <c r="B21" s="62" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="C21" s="63" t="s">
         <v>50</v>
@@ -2285,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2302,7 +2305,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="95"/>
       <c r="B25" s="67" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C25" s="60" t="s">
         <v>44</v>

--- a/lecturePlan.xlsx
+++ b/lecturePlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s15052\Documents\Teaching\BAN430\BAN430_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD16530C-6427-44E2-858F-B7D7CCA23CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9615B9EA-DD64-495A-8B60-6412B620A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="94">
   <si>
     <t>Week number</t>
   </si>
@@ -221,84 +221,6 @@
     <t>Dynamic regresion models</t>
   </si>
   <si>
-    <t>16.01.2023</t>
-  </si>
-  <si>
-    <t>19.01.2023</t>
-  </si>
-  <si>
-    <t>23.01.2023</t>
-  </si>
-  <si>
-    <t>26.01.2023</t>
-  </si>
-  <si>
-    <t>30.01.2023</t>
-  </si>
-  <si>
-    <t>02.02.2023</t>
-  </si>
-  <si>
-    <t>06.02.2023</t>
-  </si>
-  <si>
-    <t>09.02.2023</t>
-  </si>
-  <si>
-    <t>13.02.2023</t>
-  </si>
-  <si>
-    <t>16.02.2023</t>
-  </si>
-  <si>
-    <t>20.02.2023</t>
-  </si>
-  <si>
-    <t>23.02.2023</t>
-  </si>
-  <si>
-    <t>27.02.2023</t>
-  </si>
-  <si>
-    <t>02.03.2023</t>
-  </si>
-  <si>
-    <t>06.03.2023</t>
-  </si>
-  <si>
-    <t>09.03.2023</t>
-  </si>
-  <si>
-    <t>13.03.2023</t>
-  </si>
-  <si>
-    <t>16.03.2023</t>
-  </si>
-  <si>
-    <t>20.03.2023</t>
-  </si>
-  <si>
-    <t>03.04.2023</t>
-  </si>
-  <si>
-    <t>06.04.2023</t>
-  </si>
-  <si>
-    <t>27.03.2023</t>
-  </si>
-  <si>
-    <t>30.03.2023</t>
-  </si>
-  <si>
-    <t>13.04.2023</t>
-  </si>
-  <si>
-    <t>10.04.2023</t>
-  </si>
-  <si>
-    <t>08.05.2023</t>
-  </si>
-  <si>
     <t>Introduction lecture</t>
   </si>
   <si>
@@ -308,9 +230,6 @@
     <t>No lecture: Selfstudy judgmental forecasts (website)</t>
   </si>
   <si>
-    <t>23.03.2023</t>
-  </si>
-  <si>
     <t>ARIMA + Dynamic regression models</t>
   </si>
   <si>
@@ -318,12 +237,93 @@
   </si>
   <si>
     <t>Solutions to Workshop 2</t>
+  </si>
+  <si>
+    <t>24.04.2024</t>
+  </si>
+  <si>
+    <t>15.01.2024</t>
+  </si>
+  <si>
+    <t>18.01.2024</t>
+  </si>
+  <si>
+    <t>22.01.2024</t>
+  </si>
+  <si>
+    <t>25.01.2024</t>
+  </si>
+  <si>
+    <t>29.01.2024</t>
+  </si>
+  <si>
+    <t>01.02.2024</t>
+  </si>
+  <si>
+    <t>05.02.2024</t>
+  </si>
+  <si>
+    <t>08.02.2024</t>
+  </si>
+  <si>
+    <t>12.02.2024</t>
+  </si>
+  <si>
+    <t>15.02.2024</t>
+  </si>
+  <si>
+    <t>19.02.2024</t>
+  </si>
+  <si>
+    <t>22.02.2024</t>
+  </si>
+  <si>
+    <t>26.02.2024</t>
+  </si>
+  <si>
+    <t>29.02.2024</t>
+  </si>
+  <si>
+    <t>11.03.2024</t>
+  </si>
+  <si>
+    <t>04.03.024</t>
+  </si>
+  <si>
+    <t>07.03.2024</t>
+  </si>
+  <si>
+    <t>14.03.2024</t>
+  </si>
+  <si>
+    <t>21.03.2024</t>
+  </si>
+  <si>
+    <t>18.03.2024</t>
+  </si>
+  <si>
+    <t>28.03.2024</t>
+  </si>
+  <si>
+    <t>25.03.2024</t>
+  </si>
+  <si>
+    <t>04.04.2024</t>
+  </si>
+  <si>
+    <t>01.04.2024</t>
+  </si>
+  <si>
+    <t>11.04.2024</t>
+  </si>
+  <si>
+    <t>08.04.2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,10 +584,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -686,12 +685,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -701,68 +694,29 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -848,12 +802,63 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{08A62E74-7142-47AC-89E9-0DC02D7C47DC}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1280,13 +1285,13 @@
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1319,13 +1324,13 @@
       <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1393,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6C382B-A390-441B-AFA9-C1DFECC0D308}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C48"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,10 +1458,10 @@
       <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>44942</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>44945</v>
       </c>
     </row>
@@ -1473,10 +1478,10 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>44949</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>44952</v>
       </c>
     </row>
@@ -1496,10 +1501,10 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>44956</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>44959</v>
       </c>
     </row>
@@ -1519,10 +1524,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>44963</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>44966</v>
       </c>
     </row>
@@ -1530,22 +1535,22 @@
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>44970</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>44973</v>
       </c>
     </row>
@@ -1565,10 +1570,10 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>44977</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>44980</v>
       </c>
     </row>
@@ -1585,10 +1590,10 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>44984</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>44987</v>
       </c>
     </row>
@@ -1605,10 +1610,10 @@
       <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>44991</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>44994</v>
       </c>
     </row>
@@ -1616,19 +1621,19 @@
       <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>44998</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>45001</v>
       </c>
     </row>
@@ -1648,10 +1653,10 @@
       <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>45005</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>45008</v>
       </c>
     </row>
@@ -1671,10 +1676,10 @@
       <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>45012</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>45015</v>
       </c>
     </row>
@@ -1688,10 +1693,10 @@
       <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>45019</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>45022</v>
       </c>
     </row>
@@ -1705,347 +1710,347 @@
       <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>45026</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>45029</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="D17" s="38"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>44942</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <v>44945</v>
       </c>
-      <c r="D18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="27" t="s">
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66"/>
+      <c r="B19" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="24">
+      <c r="A20" s="66"/>
+      <c r="B20" s="23">
         <v>44949</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>44952</v>
       </c>
-      <c r="D20" s="40"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="27" t="s">
+      <c r="D20" s="39"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="24">
+      <c r="A22" s="66"/>
+      <c r="B22" s="23">
         <v>44956</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <v>44959</v>
       </c>
-      <c r="D22" s="40"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="27" t="s">
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="67"/>
+      <c r="B23" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="40"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>44963</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="29">
         <v>44966</v>
       </c>
-      <c r="D24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="25" t="s">
+      <c r="D24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="66"/>
+      <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="41"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="24">
+      <c r="A26" s="66"/>
+      <c r="B26" s="23">
         <v>44970</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>44973</v>
       </c>
-      <c r="D26" s="40"/>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="27" t="s">
+      <c r="D26" s="39"/>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="66"/>
+      <c r="B27" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="20">
+      <c r="A28" s="66"/>
+      <c r="B28" s="19">
         <v>44977</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>44980</v>
       </c>
-      <c r="D28" s="40"/>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="37" t="s">
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="41"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="10">
+      <c r="A30" s="66"/>
+      <c r="B30" s="9">
         <v>44984</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>44987</v>
       </c>
-      <c r="D30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="11" t="s">
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="67"/>
+      <c r="B31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="41"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>44991</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="19">
         <v>44994</v>
       </c>
-      <c r="D32" s="40"/>
-    </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="11" t="s">
+      <c r="D32" s="39"/>
+    </row>
+    <row r="33" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66"/>
+      <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="41"/>
+      <c r="D33" s="40"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="10">
+      <c r="A34" s="66"/>
+      <c r="B34" s="9">
         <v>44998</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>45001</v>
       </c>
-      <c r="D34" s="40"/>
-    </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="11" t="s">
+      <c r="D34" s="39"/>
+    </row>
+    <row r="35" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="66"/>
+      <c r="B35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="41"/>
+      <c r="D35" s="40"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="16">
+      <c r="A36" s="66"/>
+      <c r="B36" s="15">
         <v>45005</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="19">
         <v>45008</v>
       </c>
-      <c r="D36" s="40"/>
-    </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="17" t="s">
+      <c r="D36" s="39"/>
+    </row>
+    <row r="37" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="19">
+      <c r="A38" s="66"/>
+      <c r="B38" s="18">
         <v>45012</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>45015</v>
       </c>
-      <c r="D38" s="40"/>
-    </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="18" t="s">
+      <c r="D38" s="39"/>
+    </row>
+    <row r="39" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
+      <c r="B39" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="41"/>
+      <c r="D39" s="40"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="33">
         <v>45019</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="19">
         <v>45022</v>
       </c>
-      <c r="D40" s="40"/>
-    </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="23" t="s">
+      <c r="D40" s="39"/>
+    </row>
+    <row r="41" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="66"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="41"/>
+      <c r="D41" s="40"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="15">
+      <c r="A42" s="66"/>
+      <c r="B42" s="14">
         <v>45026</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>45029</v>
       </c>
-      <c r="D42" s="40"/>
-    </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="36" t="s">
+      <c r="D42" s="39"/>
+    </row>
+    <row r="43" spans="1:4" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="66"/>
+      <c r="B43" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="41"/>
+      <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="84" t="s">
+      <c r="A44" s="66"/>
+      <c r="B44" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="40"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="39"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="40"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="39"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="40"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="39"/>
     </row>
     <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="79">
+      <c r="B47" s="63">
         <v>45054</v>
       </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="40"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="39"/>
     </row>
     <row r="48" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77" t="s">
+      <c r="A48" s="60"/>
+      <c r="B48" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="40"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="39"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2067,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02AE7A-CD84-44B4-BCAE-299F3ABE620B}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,278 +2084,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="56" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="79"/>
+      <c r="B3" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="45" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="79"/>
+      <c r="B4" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="80"/>
+      <c r="B7" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
+      <c r="B9" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="79"/>
+      <c r="B10" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="79"/>
+      <c r="B11" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="79"/>
+      <c r="B12" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="79"/>
+      <c r="B13" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="79"/>
+      <c r="B14" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
+      <c r="B15" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="79"/>
+      <c r="B17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="79"/>
+      <c r="B18" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="79"/>
+      <c r="B19" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="79"/>
+      <c r="B20" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C20" s="89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="79"/>
+      <c r="B21" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="79"/>
+      <c r="B22" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="87" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="44" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="79"/>
+      <c r="B25" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="79"/>
+      <c r="B26" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="79"/>
+      <c r="B27" s="48" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="48" t="s">
+      <c r="C27" s="53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="79"/>
+      <c r="B28" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="58"/>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="81"/>
+      <c r="B29" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="74"/>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="91"/>
+      <c r="C29" s="75"/>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
-      <c r="B30" s="92" t="s">
+      <c r="A30" s="82"/>
+      <c r="B30" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="93"/>
+      <c r="C30" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2371,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A780E3C1-B692-48F8-988B-66A9EFA8823C}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,286 +2385,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>44942</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>44945</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="24">
+      <c r="A4" s="66"/>
+      <c r="B4" s="23">
         <v>44949</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>44952</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="24">
+      <c r="A6" s="66"/>
+      <c r="B6" s="23">
         <v>44956</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>44959</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>44963</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>44966</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="24">
+      <c r="A10" s="66"/>
+      <c r="B10" s="23">
         <v>44970</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>44973</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="20">
+      <c r="A12" s="66"/>
+      <c r="B12" s="19">
         <v>44977</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>44980</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="10">
+      <c r="A14" s="66"/>
+      <c r="B14" s="9">
         <v>44984</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>44987</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>44991</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>44994</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="66"/>
+      <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="10">
+      <c r="A18" s="66"/>
+      <c r="B18" s="9">
         <v>44998</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>45001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="16">
+      <c r="A20" s="66"/>
+      <c r="B20" s="15">
         <v>45005</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>45008</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="19">
+      <c r="A22" s="66"/>
+      <c r="B22" s="18">
         <v>45012</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>45015</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="33">
         <v>45019</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>45022</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="23" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="15">
+      <c r="A26" s="66"/>
+      <c r="B26" s="14">
         <v>45026</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>45029</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="84" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="85"/>
+      <c r="C28" s="69"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="79">
+      <c r="B31" s="63">
         <v>45054</v>
       </c>
-      <c r="C31" s="80"/>
+      <c r="C31" s="64"/>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77" t="s">
+      <c r="A32" s="60"/>
+      <c r="B32" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/lecturePlan.xlsx
+++ b/lecturePlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s15052\Documents\Teaching\BAN430\BAN430_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9615B9EA-DD64-495A-8B60-6412B620A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB848768-79B4-4E64-B3AE-CAACFA3332F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="95">
   <si>
     <t>Week number</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>08.04.2024</t>
+  </si>
+  <si>
+    <t>Monday 10:15-12:00</t>
   </si>
 </sst>
 </file>
@@ -730,78 +733,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -842,7 +773,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,6 +781,78 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1737,7 +1740,7 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="82" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="23">
@@ -1749,7 +1752,7 @@
       <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="26" t="s">
         <v>40</v>
       </c>
@@ -1759,7 +1762,7 @@
       <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="23">
         <v>44949</v>
       </c>
@@ -1769,7 +1772,7 @@
       <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="26" t="s">
         <v>3</v>
       </c>
@@ -1779,7 +1782,7 @@
       <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="23">
         <v>44956</v>
       </c>
@@ -1789,7 +1792,7 @@
       <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="26" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1802,7 @@
       <c r="D23" s="40"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="82" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="25">
@@ -1811,7 +1814,7 @@
       <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
@@ -1821,7 +1824,7 @@
       <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="23">
         <v>44970</v>
       </c>
@@ -1831,7 +1834,7 @@
       <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="26" t="s">
         <v>42</v>
       </c>
@@ -1841,7 +1844,7 @@
       <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="19">
         <v>44977</v>
       </c>
@@ -1851,7 +1854,7 @@
       <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="36" t="s">
         <v>59</v>
       </c>
@@ -1861,7 +1864,7 @@
       <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="9">
         <v>44984</v>
       </c>
@@ -1871,7 +1874,7 @@
       <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="10" t="s">
         <v>43</v>
       </c>
@@ -1881,7 +1884,7 @@
       <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="82" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="11">
@@ -1893,7 +1896,7 @@
       <c r="D32" s="39"/>
     </row>
     <row r="33" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
@@ -1903,7 +1906,7 @@
       <c r="D33" s="40"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="9">
         <v>44998</v>
       </c>
@@ -1913,7 +1916,7 @@
       <c r="D34" s="39"/>
     </row>
     <row r="35" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="10" t="s">
         <v>43</v>
       </c>
@@ -1923,7 +1926,7 @@
       <c r="D35" s="40"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="15">
         <v>45005</v>
       </c>
@@ -1933,7 +1936,7 @@
       <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="16" t="s">
         <v>46</v>
       </c>
@@ -1943,7 +1946,7 @@
       <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="18">
         <v>45012</v>
       </c>
@@ -1953,7 +1956,7 @@
       <c r="D38" s="39"/>
     </row>
     <row r="39" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="17" t="s">
         <v>11</v>
       </c>
@@ -1963,7 +1966,7 @@
       <c r="D39" s="40"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="33">
@@ -1975,7 +1978,7 @@
       <c r="D40" s="39"/>
     </row>
     <row r="41" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="34"/>
       <c r="C41" s="22" t="s">
         <v>44</v>
@@ -1983,7 +1986,7 @@
       <c r="D41" s="40"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="14">
         <v>45026</v>
       </c>
@@ -1993,7 +1996,7 @@
       <c r="D42" s="39"/>
     </row>
     <row r="43" spans="1:4" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="35" t="s">
         <v>44</v>
       </c>
@@ -2003,41 +2006,41 @@
       <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
-      <c r="B44" s="68" t="s">
+      <c r="A44" s="83"/>
+      <c r="B44" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="69"/>
+      <c r="C44" s="86"/>
       <c r="D44" s="39"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="71"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
       <c r="D45" s="39"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="73"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="39"/>
     </row>
     <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="63">
+      <c r="B47" s="80">
         <v>45054</v>
       </c>
-      <c r="C47" s="64"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="39"/>
     </row>
     <row r="48" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61" t="s">
+      <c r="A48" s="77"/>
+      <c r="B48" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="62"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="39"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2073,7 +2076,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,25 +2089,25 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
       <c r="B1" s="55" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="60" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="42" t="s">
         <v>61</v>
       </c>
@@ -2113,16 +2116,16 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="60" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
@@ -2131,16 +2134,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="83" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="60" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
@@ -2149,18 +2152,18 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="62" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="45" t="s">
         <v>8</v>
       </c>
@@ -2169,16 +2172,16 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="96"/>
+      <c r="B10" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="60" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="42" t="s">
         <v>42</v>
       </c>
@@ -2187,16 +2190,16 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="96"/>
+      <c r="B12" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="64" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="47" t="s">
         <v>59</v>
       </c>
@@ -2205,16 +2208,16 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="89" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="66" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="48" t="s">
         <v>43</v>
       </c>
@@ -2223,18 +2226,18 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="50" t="s">
         <v>50</v>
       </c>
@@ -2243,16 +2246,16 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="89" t="s">
+      <c r="A18" s="96"/>
+      <c r="B18" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="66" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="48" t="s">
         <v>64</v>
       </c>
@@ -2261,55 +2264,55 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="92" t="s">
+      <c r="A20" s="96"/>
+      <c r="B20" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="65" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="74" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="93" t="s">
+      <c r="A22" s="96"/>
+      <c r="B22" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="63" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="94" t="s">
+      <c r="A23" s="97"/>
+      <c r="B23" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="71" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="73" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="94" t="s">
+      <c r="A25" s="96"/>
+      <c r="B25" s="70" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="52" t="s">
@@ -2317,16 +2320,16 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="90" t="s">
+      <c r="A26" s="96"/>
+      <c r="B26" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="67" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="48" t="s">
         <v>66</v>
       </c>
@@ -2335,25 +2338,25 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="58"/>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="74" t="s">
+      <c r="A29" s="98"/>
+      <c r="B29" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="75"/>
+      <c r="C29" s="92"/>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="76" t="s">
+      <c r="A30" s="99"/>
+      <c r="B30" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="77"/>
+      <c r="C30" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2394,7 +2397,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="82" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="23">
@@ -2405,7 +2408,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="26" t="s">
         <v>40</v>
       </c>
@@ -2414,7 +2417,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="23">
         <v>44949</v>
       </c>
@@ -2423,7 +2426,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2435,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="23">
         <v>44956</v>
       </c>
@@ -2441,7 +2444,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
@@ -2450,7 +2453,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="82" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="25">
@@ -2461,7 +2464,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2470,7 +2473,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="23">
         <v>44970</v>
       </c>
@@ -2479,7 +2482,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="26" t="s">
         <v>42</v>
       </c>
@@ -2488,7 +2491,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="19">
         <v>44977</v>
       </c>
@@ -2497,7 +2500,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="36" t="s">
         <v>59</v>
       </c>
@@ -2506,7 +2509,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="9">
         <v>44984</v>
       </c>
@@ -2515,7 +2518,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
@@ -2524,7 +2527,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="82" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="11">
@@ -2535,7 +2538,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
@@ -2544,7 +2547,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="9">
         <v>44998</v>
       </c>
@@ -2553,7 +2556,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="10" t="s">
         <v>43</v>
       </c>
@@ -2562,7 +2565,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="15">
         <v>45005</v>
       </c>
@@ -2571,7 +2574,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="16" t="s">
         <v>46</v>
       </c>
@@ -2580,7 +2583,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="18">
         <v>45012</v>
       </c>
@@ -2589,7 +2592,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="17" t="s">
         <v>11</v>
       </c>
@@ -2598,7 +2601,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="33">
@@ -2609,14 +2612,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="34"/>
       <c r="C25" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="14">
         <v>45026</v>
       </c>
@@ -2625,7 +2628,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="35" t="s">
         <v>44</v>
       </c>
@@ -2634,37 +2637,37 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="86"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="71"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="80">
         <v>45054</v>
       </c>
-      <c r="C31" s="64"/>
+      <c r="C31" s="81"/>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/lecturePlan.xlsx
+++ b/lecturePlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s15052\Documents\Teaching\BAN430\BAN430_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB848768-79B4-4E64-B3AE-CAACFA3332F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA28467-378E-4E89-B7EF-C9647F5E7EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
+    <workbookView xWindow="3900" yWindow="2940" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="95">
   <si>
     <t>Week number</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Solutions to Workshop 2</t>
   </si>
   <si>
-    <t>24.04.2024</t>
-  </si>
-  <si>
     <t>15.01.2024</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>Monday 10:15-12:00</t>
+  </si>
+  <si>
+    <t>22.04.2024</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -853,6 +853,12 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,9 +880,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -914,7 +920,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1020,7 +1026,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1162,7 +1168,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2076,7 +2082,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2095,7 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
       <c r="B1" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>35</v>
@@ -2100,10 +2106,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="60" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2112,34 +2118,34 @@
         <v>61</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="96"/>
       <c r="B4" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="96"/>
-      <c r="B5" s="42" t="s">
-        <v>3</v>
+      <c r="B5" s="44" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="96"/>
       <c r="B6" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,10 +2162,10 @@
         <v>55</v>
       </c>
       <c r="B8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2174,10 +2180,10 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="96"/>
       <c r="B10" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,38 +2197,38 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="96"/>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="96"/>
-      <c r="B13" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>63</v>
+      <c r="B13" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="97"/>
-      <c r="B15" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>43</v>
+      <c r="B15" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2230,10 +2236,10 @@
         <v>56</v>
       </c>
       <c r="B16" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="65" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2248,10 +2254,10 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="96"/>
       <c r="B18" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2266,10 +2272,10 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="96"/>
       <c r="B20" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2284,10 +2290,10 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="96"/>
       <c r="B22" s="69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2304,10 +2310,10 @@
         <v>57</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2322,10 +2328,10 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="96"/>
       <c r="B26" s="66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,7 +2353,7 @@
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="98"/>
       <c r="B29" s="91" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C29" s="92"/>
     </row>
@@ -2378,7 +2384,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,270 +2394,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="23">
-        <v>44942</v>
-      </c>
-      <c r="C2" s="27">
-        <v>44945</v>
+      <c r="B2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>41</v>
+      <c r="A3" s="96"/>
+      <c r="B3" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="23">
-        <v>44949</v>
-      </c>
-      <c r="C4" s="27">
-        <v>44952</v>
+      <c r="A4" s="96"/>
+      <c r="B4" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="23">
-        <v>44956</v>
-      </c>
-      <c r="C6" s="27">
-        <v>44959</v>
+      <c r="A6" s="96"/>
+      <c r="B6" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="25">
-        <v>44963</v>
-      </c>
-      <c r="C8" s="29">
-        <v>44966</v>
+      <c r="B8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="96"/>
+      <c r="B9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="23">
-        <v>44970</v>
-      </c>
-      <c r="C10" s="27">
-        <v>44973</v>
+      <c r="A10" s="96"/>
+      <c r="B10" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="19">
-        <v>44977</v>
-      </c>
-      <c r="C12" s="14">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="36" t="s">
+      <c r="A12" s="96"/>
+      <c r="B12" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="96"/>
+      <c r="B13" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>59</v>
+      <c r="C13" s="47" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="9">
-        <v>44984</v>
-      </c>
-      <c r="C14" s="12">
-        <v>44987</v>
+      <c r="A14" s="96"/>
+      <c r="B14" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="97"/>
+      <c r="B15" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="11">
-        <v>44991</v>
-      </c>
-      <c r="C16" s="19">
-        <v>44994</v>
+      <c r="B16" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="96"/>
+      <c r="B17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="9">
-        <v>44998</v>
-      </c>
-      <c r="C18" s="12">
-        <v>45001</v>
+      <c r="A18" s="96"/>
+      <c r="B18" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>60</v>
+      <c r="A19" s="96"/>
+      <c r="B19" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="15">
-        <v>45005</v>
-      </c>
-      <c r="C20" s="19">
-        <v>45008</v>
+      <c r="A20" s="96"/>
+      <c r="B20" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>50</v>
+      <c r="A21" s="96"/>
+      <c r="B21" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="18">
-        <v>45012</v>
-      </c>
-      <c r="C22" s="9">
-        <v>45015</v>
+      <c r="A22" s="96"/>
+      <c r="B22" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="97"/>
+      <c r="B23" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="96"/>
+      <c r="B25" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="33">
-        <v>45019</v>
-      </c>
-      <c r="C24" s="19">
-        <v>45022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="22" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="14">
-        <v>45026</v>
-      </c>
-      <c r="C26" s="11">
-        <v>45029</v>
+      <c r="A26" s="96"/>
+      <c r="B26" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="85" t="s">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="96"/>
+      <c r="B28" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="86"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
+      <c r="C28" s="58"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="98"/>
+      <c r="B29" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="92"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="99"/>
+      <c r="B30" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="94"/>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
@@ -2670,15 +2682,17 @@
       <c r="C32" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A15"/>
     <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lecturePlan.xlsx
+++ b/lecturePlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s15052\Documents\Teaching\BAN430\BAN430_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA28467-378E-4E89-B7EF-C9647F5E7EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CDBF1B-41D0-4A2F-93F5-7E5F2071B17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2940" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="100">
   <si>
     <t>Week number</t>
   </si>
@@ -321,6 +321,21 @@
   </si>
   <si>
     <t>22.04.2024</t>
+  </si>
+  <si>
+    <t>Practical issues</t>
+  </si>
+  <si>
+    <t>Electricity price workshop</t>
+  </si>
+  <si>
+    <t>Summary lecture / old exam</t>
+  </si>
+  <si>
+    <t>Walmart workshop</t>
+  </si>
+  <si>
+    <t>Walmart solutions</t>
   </si>
 </sst>
 </file>
@@ -587,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -782,6 +797,13 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,12 +875,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1746,7 +1762,7 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="85" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="23">
@@ -1758,7 +1774,7 @@
       <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="26" t="s">
         <v>40</v>
       </c>
@@ -1768,7 +1784,7 @@
       <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="23">
         <v>44949</v>
       </c>
@@ -1778,7 +1794,7 @@
       <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="26" t="s">
         <v>3</v>
       </c>
@@ -1788,7 +1804,7 @@
       <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="23">
         <v>44956</v>
       </c>
@@ -1798,7 +1814,7 @@
       <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="26" t="s">
         <v>7</v>
       </c>
@@ -1808,7 +1824,7 @@
       <c r="D23" s="40"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="85" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="25">
@@ -1820,7 +1836,7 @@
       <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
@@ -1830,7 +1846,7 @@
       <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="23">
         <v>44970</v>
       </c>
@@ -1840,7 +1856,7 @@
       <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="26" t="s">
         <v>42</v>
       </c>
@@ -1850,7 +1866,7 @@
       <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="19">
         <v>44977</v>
       </c>
@@ -1860,7 +1876,7 @@
       <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="36" t="s">
         <v>59</v>
       </c>
@@ -1870,7 +1886,7 @@
       <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="9">
         <v>44984</v>
       </c>
@@ -1880,7 +1896,7 @@
       <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="10" t="s">
         <v>43</v>
       </c>
@@ -1890,7 +1906,7 @@
       <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="85" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="11">
@@ -1902,7 +1918,7 @@
       <c r="D32" s="39"/>
     </row>
     <row r="33" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
@@ -1912,7 +1928,7 @@
       <c r="D33" s="40"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="9">
         <v>44998</v>
       </c>
@@ -1922,7 +1938,7 @@
       <c r="D34" s="39"/>
     </row>
     <row r="35" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
+      <c r="A35" s="86"/>
       <c r="B35" s="10" t="s">
         <v>43</v>
       </c>
@@ -1932,7 +1948,7 @@
       <c r="D35" s="40"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
+      <c r="A36" s="86"/>
       <c r="B36" s="15">
         <v>45005</v>
       </c>
@@ -1942,7 +1958,7 @@
       <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="16" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +1968,7 @@
       <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="18">
         <v>45012</v>
       </c>
@@ -1962,7 +1978,7 @@
       <c r="D38" s="39"/>
     </row>
     <row r="39" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="17" t="s">
         <v>11</v>
       </c>
@@ -1972,7 +1988,7 @@
       <c r="D39" s="40"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="85" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="33">
@@ -1984,7 +2000,7 @@
       <c r="D40" s="39"/>
     </row>
     <row r="41" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="34"/>
       <c r="C41" s="22" t="s">
         <v>44</v>
@@ -1992,7 +2008,7 @@
       <c r="D41" s="40"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="14">
         <v>45026</v>
       </c>
@@ -2002,7 +2018,7 @@
       <c r="D42" s="39"/>
     </row>
     <row r="43" spans="1:4" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="35" t="s">
         <v>44</v>
       </c>
@@ -2012,41 +2028,41 @@
       <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="85" t="s">
+      <c r="A44" s="86"/>
+      <c r="B44" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="86"/>
+      <c r="C44" s="89"/>
       <c r="D44" s="39"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="88"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="39"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
+      <c r="A46" s="87"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="93"/>
       <c r="D46" s="39"/>
     </row>
     <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="80">
+      <c r="B47" s="83">
         <v>45054</v>
       </c>
-      <c r="C47" s="81"/>
+      <c r="C47" s="84"/>
       <c r="D47" s="39"/>
     </row>
     <row r="48" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78" t="s">
+      <c r="A48" s="80"/>
+      <c r="B48" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="79"/>
+      <c r="C48" s="82"/>
       <c r="D48" s="39"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2081,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C02AE7A-CD84-44B4-BCAE-299F3ABE620B}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2118,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="59" t="s">
@@ -2113,7 +2129,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="42" t="s">
         <v>61</v>
       </c>
@@ -2122,7 +2138,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="59" t="s">
         <v>69</v>
       </c>
@@ -2131,7 +2147,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="44" t="s">
         <v>4</v>
       </c>
@@ -2140,7 +2156,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="59" t="s">
         <v>71</v>
       </c>
@@ -2149,7 +2165,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="97"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
@@ -2158,7 +2174,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="98" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="61" t="s">
@@ -2169,7 +2185,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="45" t="s">
         <v>8</v>
       </c>
@@ -2178,7 +2194,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="59" t="s">
         <v>75</v>
       </c>
@@ -2187,7 +2203,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="42" t="s">
         <v>42</v>
       </c>
@@ -2196,7 +2212,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="65" t="s">
         <v>77</v>
       </c>
@@ -2205,16 +2221,16 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="100" t="s">
+      <c r="A13" s="99"/>
+      <c r="B13" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="76" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="63" t="s">
         <v>79</v>
       </c>
@@ -2223,16 +2239,16 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="77" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="98" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="75" t="s">
@@ -2243,7 +2259,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="50" t="s">
         <v>50</v>
       </c>
@@ -2252,7 +2268,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="65" t="s">
         <v>81</v>
       </c>
@@ -2261,16 +2277,16 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="48" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="68" t="s">
         <v>86</v>
       </c>
@@ -2279,16 +2295,16 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="51" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="69" t="s">
         <v>88</v>
       </c>
@@ -2297,16 +2313,16 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="78" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="98" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="72" t="s">
@@ -2317,16 +2333,16 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="52" t="s">
-        <v>11</v>
+      <c r="C25" s="48" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="66" t="s">
         <v>92</v>
       </c>
@@ -2335,34 +2351,34 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="48" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="58"/>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="91" t="s">
+      <c r="A29" s="101"/>
+      <c r="B29" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="92"/>
+      <c r="C29" s="95"/>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
-      <c r="B30" s="93" t="s">
+      <c r="A30" s="102"/>
+      <c r="B30" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="94"/>
+      <c r="C30" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2403,7 +2419,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="59" t="s">
@@ -2414,7 +2430,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="42" t="s">
         <v>61</v>
       </c>
@@ -2423,7 +2439,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="59" t="s">
         <v>69</v>
       </c>
@@ -2432,7 +2448,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
@@ -2441,7 +2457,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="59" t="s">
         <v>71</v>
       </c>
@@ -2450,7 +2466,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="97"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
@@ -2459,7 +2475,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="98" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="61" t="s">
@@ -2470,7 +2486,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="45" t="s">
         <v>8</v>
       </c>
@@ -2479,7 +2495,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="59" t="s">
         <v>75</v>
       </c>
@@ -2488,7 +2504,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="42" t="s">
         <v>42</v>
       </c>
@@ -2497,7 +2513,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="63" t="s">
         <v>77</v>
       </c>
@@ -2506,7 +2522,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="47" t="s">
         <v>59</v>
       </c>
@@ -2515,7 +2531,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="65" t="s">
         <v>79</v>
       </c>
@@ -2524,7 +2540,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="48" t="s">
         <v>43</v>
       </c>
@@ -2533,7 +2549,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="98" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="75" t="s">
@@ -2544,7 +2560,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="50" t="s">
         <v>50</v>
       </c>
@@ -2553,7 +2569,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="65" t="s">
         <v>81</v>
       </c>
@@ -2562,7 +2578,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="48" t="s">
         <v>64</v>
       </c>
@@ -2571,7 +2587,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="68" t="s">
         <v>86</v>
       </c>
@@ -2580,7 +2596,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="51" t="s">
         <v>11</v>
       </c>
@@ -2589,7 +2605,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="69" t="s">
         <v>88</v>
       </c>
@@ -2598,7 +2614,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="70" t="s">
         <v>44</v>
       </c>
@@ -2607,7 +2623,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="98" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="72" t="s">
@@ -2618,7 +2634,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="70" t="s">
         <v>44</v>
       </c>
@@ -2627,7 +2643,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="66" t="s">
         <v>92</v>
       </c>
@@ -2636,7 +2652,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="48" t="s">
         <v>66</v>
       </c>
@@ -2645,41 +2661,41 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="58"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="91" t="s">
+      <c r="A29" s="101"/>
+      <c r="B29" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="92"/>
+      <c r="C29" s="95"/>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
-      <c r="B30" s="93" t="s">
+      <c r="A30" s="102"/>
+      <c r="B30" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="94"/>
+      <c r="C30" s="97"/>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="80">
+      <c r="B31" s="83">
         <v>45054</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="84"/>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="80"/>
+      <c r="B32" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/lecturePlan.xlsx
+++ b/lecturePlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s15052\Documents\Teaching\BAN430\BAN430_book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CDBF1B-41D0-4A2F-93F5-7E5F2071B17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968059AC-57D1-4157-B576-60F787734261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{DEDCCCE6-C2B3-4C3C-BD8B-2E3EEC4135F8}"/>
   </bookViews>
@@ -326,9 +326,6 @@
     <t>Practical issues</t>
   </si>
   <si>
-    <t>Electricity price workshop</t>
-  </si>
-  <si>
     <t>Summary lecture / old exam</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Walmart solutions</t>
+  </si>
+  <si>
+    <t>No lecture: Study for exam</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2098,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2282,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>95</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2352,11 +2352,11 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="99"/>
-      <c r="B27" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>97</v>
+      <c r="B27" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
